--- a/Dati Agrimonia/LussanaPNRR - Metadata Agrimonia.xlsx
+++ b/Dati Agrimonia/LussanaPNRR - Metadata Agrimonia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78c534892eb48a1f/Documenti/GitHub/B.STAT.5/Dati Agrimonia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ascari\Desktop\GitHub\B.STAT.5\Dati Agrimonia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{49E4806D-DFDE-4CD4-8FD1-F0ADC76C4E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{192AB1C5-9EE0-483E-A460-A564EDDB324A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F546ADD5-B3CC-45CC-9199-0B9A267A0C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{7398BD24-9904-492A-B0B7-61F677896275}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7398BD24-9904-492A-B0B7-61F677896275}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata Agrimonia" sheetId="1" r:id="rId1"/>
@@ -738,7 +738,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -967,6 +967,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1012,7 +1023,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1038,19 +1049,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1060,6 +1062,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1121,9 +1138,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1161,7 +1178,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1267,7 +1284,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1409,7 +1426,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1420,7 +1437,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1436,33 +1453,33 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -1473,10 +1490,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1485,14 +1502,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1503,10 +1520,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1515,14 +1532,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1533,10 +1550,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1545,14 +1562,14 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1563,10 +1580,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1575,14 +1592,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1593,10 +1610,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1605,7 +1622,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1623,7 +1640,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1641,7 +1658,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1659,7 +1676,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1677,7 +1694,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1695,7 +1712,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
@@ -1713,7 +1730,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
@@ -1731,7 +1748,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="15"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1749,7 +1766,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="15"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1767,7 +1784,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
@@ -1785,7 +1802,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="15"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="1" t="s">
         <v>58</v>
       </c>
@@ -1803,184 +1820,184 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="15"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="15"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="11"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="15"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="15"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="11"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="15"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="15"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="11"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="15"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="15"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="11"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="15"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="11"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="15"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="11"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="15"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="11"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="16"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="12"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="9" t="s">
         <v>93</v>
       </c>
       <c r="E35" s="6" t="s">
@@ -1991,10 +2008,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="15"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="1" t="s">
         <v>12</v>
       </c>
@@ -2003,14 +2020,14 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A37" s="15"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="10" t="s">
         <v>93</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -2021,10 +2038,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="15"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="1" t="s">
         <v>12</v>
       </c>
@@ -2033,7 +2050,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="16"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="3" t="s">
         <v>96</v>
       </c>
@@ -2051,7 +2068,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -2071,7 +2088,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A41" s="15"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="1" t="s">
         <v>103</v>
       </c>
@@ -2089,7 +2106,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A42" s="15"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="1" t="s">
         <v>106</v>
       </c>
@@ -2107,7 +2124,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="15"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="1" t="s">
         <v>108</v>
       </c>
@@ -2125,7 +2142,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="16"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="3" t="s">
         <v>111</v>
       </c>
@@ -2143,7 +2160,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="11" t="s">
         <v>113</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -2163,7 +2180,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="16"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="3" t="s">
         <v>118</v>
       </c>
@@ -2181,7 +2198,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="12" t="s">
         <v>120</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2201,7 +2218,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="16"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="3" t="s">
         <v>124</v>
       </c>
@@ -2220,16 +2237,21 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A2:A34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="F29:F34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
@@ -2243,22 +2265,18 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F29:F34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="A2:A34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>